--- a/ADDSmembership.xlsx
+++ b/ADDSmembership.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ADDS  Members 2014-15'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ADDS  Members 2014-15'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ADDS  Members 2014-15'!$A$1:$S$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'ADDS  Members 2014-15'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -89,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +111,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -597,89 +590,92 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1021,13 +1017,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1113,9 +1112,25 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15">
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
     </row>
     <row r="3" spans="1:19">
       <c r="D3" s="5"/>
@@ -1203,10 +1218,10 @@
     <sortCondition ref="E2:E86"/>
     <sortCondition ref="F2:F86"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.15748031496062992" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>&amp;L&amp;D  &amp;T&amp;CPage &amp;P of &amp;N</oddFooter>
